--- a/Instances/06_NonStationary_b4_fe25_en_rk50_ll0_l40_HFalse_c2.xlsx
+++ b/Instances/06_NonStationary_b4_fe25_en_rk50_ll0_l40_HFalse_c2.xlsx
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -3246,13 +3246,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1524</v>
+        <v>1516</v>
       </c>
       <c r="D2" t="n">
         <v>0.001084</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1522</v>
+        <v>0.2736</v>
       </c>
       <c r="F2" t="n">
         <v>0.004336</v>
@@ -3286,7 +3286,7 @@
         <v>0.001004</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01172</v>
+        <v>0.021</v>
       </c>
       <c r="F3" t="n">
         <v>0.004016</v>
@@ -3320,7 +3320,7 @@
         <v>0.001124</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05515999999999999</v>
+        <v>0.09827999999999999</v>
       </c>
       <c r="F4" t="n">
         <v>0.004496</v>
@@ -3348,13 +3348,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D5" t="n">
         <v>0.001132</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0252</v>
+        <v>0.0454</v>
       </c>
       <c r="F5" t="n">
         <v>0.004528</v>
@@ -3382,13 +3382,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D6" t="n">
         <v>0.001052</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0016</v>
+        <v>0.00292</v>
       </c>
       <c r="F6" t="n">
         <v>0.004208</v>
@@ -3416,13 +3416,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D7" t="n">
         <v>0.001172</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0532</v>
+        <v>0.09603999999999999</v>
       </c>
       <c r="F7" t="n">
         <v>0.004687999999999999</v>
@@ -3450,13 +3450,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>3415</v>
+        <v>3419</v>
       </c>
       <c r="D8" t="n">
         <v>0.00144</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3418</v>
+        <v>0.6148</v>
       </c>
       <c r="F8" t="n">
         <v>0.00576</v>
@@ -3484,13 +3484,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="D9" t="n">
         <v>0.00136</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03424</v>
+        <v>0.06168000000000001</v>
       </c>
       <c r="F9" t="n">
         <v>0.00544</v>
@@ -3518,13 +3518,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D10" t="n">
         <v>0.00148</v>
       </c>
       <c r="E10" t="n">
-        <v>0.04284</v>
+        <v>0.07811999999999999</v>
       </c>
       <c r="F10" t="n">
         <v>0.00592</v>
@@ -3552,13 +3552,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>3196</v>
+        <v>3194</v>
       </c>
       <c r="D11" t="n">
         <v>0.001472</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3198</v>
+        <v>0.5754</v>
       </c>
       <c r="F11" t="n">
         <v>0.005888</v>
@@ -3586,13 +3586,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1998</v>
+        <v>2005</v>
       </c>
       <c r="D12" t="n">
         <v>0.001392</v>
       </c>
       <c r="E12" t="n">
-        <v>0.04008</v>
+        <v>0.07204000000000001</v>
       </c>
       <c r="F12" t="n">
         <v>0.005568</v>
@@ -3620,13 +3620,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1763</v>
+        <v>1765</v>
       </c>
       <c r="D13" t="n">
         <v>0.001512</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2464</v>
+        <v>0.44436</v>
       </c>
       <c r="F13" t="n">
         <v>0.006048</v>
@@ -3660,7 +3660,7 @@
         <v>0.0001</v>
       </c>
       <c r="E14" t="n">
-        <v>1.49</v>
+        <v>2.6808</v>
       </c>
       <c r="F14" t="n">
         <v>0.0004</v>
@@ -3694,7 +3694,7 @@
         <v>0.00034</v>
       </c>
       <c r="E15" t="n">
-        <v>1.09276</v>
+        <v>1.96316</v>
       </c>
       <c r="F15" t="n">
         <v>0.00136</v>
@@ -3728,7 +3728,7 @@
         <v>6e-05</v>
       </c>
       <c r="E16" t="n">
-        <v>0.04272</v>
+        <v>0.07716000000000001</v>
       </c>
       <c r="F16" t="n">
         <v>0.00024</v>
@@ -3762,7 +3762,7 @@
         <v>0.000332</v>
       </c>
       <c r="E17" t="n">
-        <v>1.804752</v>
+        <v>3.25028</v>
       </c>
       <c r="F17" t="n">
         <v>0.001328</v>
@@ -3796,7 +3796,7 @@
         <v>0.000364</v>
       </c>
       <c r="E18" t="n">
-        <v>4.512872</v>
+        <v>8.12448</v>
       </c>
       <c r="F18" t="n">
         <v>0.001456</v>
@@ -3830,7 +3830,7 @@
         <v>0.000344</v>
       </c>
       <c r="E19" t="n">
-        <v>2.394928</v>
+        <v>4.31032</v>
       </c>
       <c r="F19" t="n">
         <v>0.001376</v>
@@ -3864,7 +3864,7 @@
         <v>0.0009840000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>1.210968</v>
+        <v>2.172192</v>
       </c>
       <c r="F20" t="n">
         <v>0.003936</v>
@@ -3898,7 +3898,7 @@
         <v>0.001032</v>
       </c>
       <c r="E21" t="n">
-        <v>0.407264</v>
+        <v>0.735592</v>
       </c>
       <c r="F21" t="n">
         <v>0.004128</v>
@@ -3932,7 +3932,7 @@
         <v>0.00134</v>
       </c>
       <c r="E22" t="n">
-        <v>2.413584</v>
+        <v>4.346760000000001</v>
       </c>
       <c r="F22" t="n">
         <v>0.00536</v>
@@ -3966,7 +3966,7 @@
         <v>0.001372</v>
       </c>
       <c r="E23" t="n">
-        <v>3.230368</v>
+        <v>5.81392</v>
       </c>
       <c r="F23" t="n">
         <v>0.005488</v>
@@ -3994,13 +3994,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>14894</v>
+        <v>14887</v>
       </c>
       <c r="D24" t="n">
         <v>0.00014</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5960000000000001</v>
+        <v>1.07232</v>
       </c>
       <c r="F24" t="n">
         <v>0.0005600000000000001</v>
@@ -4028,13 +4028,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>3201</v>
+        <v>3223</v>
       </c>
       <c r="D25" t="n">
         <v>0.00036</v>
       </c>
       <c r="E25" t="n">
-        <v>0.06428</v>
+        <v>0.11548</v>
       </c>
       <c r="F25" t="n">
         <v>0.00144</v>
@@ -4062,13 +4062,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>702</v>
+        <v>722</v>
       </c>
       <c r="D26" t="n">
         <v>0.0001</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02848</v>
+        <v>0.05144000000000001</v>
       </c>
       <c r="F26" t="n">
         <v>0.0004</v>
@@ -4096,13 +4096,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>5438</v>
+        <v>5437</v>
       </c>
       <c r="D27" t="n">
         <v>0.000372</v>
       </c>
       <c r="E27" t="n">
-        <v>0.21744</v>
+        <v>0.3916000000000001</v>
       </c>
       <c r="F27" t="n">
         <v>0.001488</v>
@@ -4130,13 +4130,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>12395</v>
+        <v>12386</v>
       </c>
       <c r="D28" t="n">
         <v>0.000384</v>
       </c>
       <c r="E28" t="n">
-        <v>0.24796</v>
+        <v>0.4464</v>
       </c>
       <c r="F28" t="n">
         <v>0.001536</v>
@@ -4164,13 +4164,13 @@
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>6957</v>
+        <v>6949</v>
       </c>
       <c r="D29" t="n">
         <v>0.000384</v>
       </c>
       <c r="E29" t="n">
-        <v>0.27848</v>
+        <v>0.5012000000000001</v>
       </c>
       <c r="F29" t="n">
         <v>0.001536</v>
@@ -4199,7 +4199,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC6"/>
+  <dimension ref="A1:AC10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4354,40 +4354,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C2" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D2" t="n">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E2" t="n">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F2" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G2" t="n">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H2" t="n">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="I2" t="n">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="J2" t="n">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="K2" t="n">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="L2" t="n">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="M2" t="n">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -4443,37 +4443,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="C3" t="n">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D3" t="n">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E3" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F3" t="n">
         <v>37</v>
       </c>
       <c r="G3" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H3" t="n">
-        <v>1706</v>
+        <v>1712</v>
       </c>
       <c r="I3" t="n">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="J3" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K3" t="n">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="L3" t="n">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="M3" t="n">
         <v>882</v>
@@ -4532,40 +4532,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C4" t="n">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D4" t="n">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E4" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F4" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H4" t="n">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="I4" t="n">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="J4" t="n">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K4" t="n">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="L4" t="n">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="M4" t="n">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4621,40 +4621,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>757</v>
+        <v>764</v>
       </c>
       <c r="C5" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D5" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E5" t="n">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F5" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G5" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H5" t="n">
-        <v>1713</v>
+        <v>1708</v>
       </c>
       <c r="I5" t="n">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="J5" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K5" t="n">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="L5" t="n">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="M5" t="n">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -4713,84 +4713,440 @@
         <v>763</v>
       </c>
       <c r="C6" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D6" t="n">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E6" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F6" t="n">
+        <v>41</v>
+      </c>
+      <c r="G6" t="n">
+        <v>189</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1715</v>
+      </c>
+      <c r="I6" t="n">
+        <v>860</v>
+      </c>
+      <c r="J6" t="n">
+        <v>160</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1599</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1002</v>
+      </c>
+      <c r="M6" t="n">
+        <v>882</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>758</v>
+      </c>
+      <c r="C7" t="n">
+        <v>295</v>
+      </c>
+      <c r="D7" t="n">
+        <v>194</v>
+      </c>
+      <c r="E7" t="n">
+        <v>122</v>
+      </c>
+      <c r="F7" t="n">
+        <v>37</v>
+      </c>
+      <c r="G7" t="n">
+        <v>191</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1701</v>
+      </c>
+      <c r="I7" t="n">
+        <v>859</v>
+      </c>
+      <c r="J7" t="n">
+        <v>152</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1602</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1003</v>
+      </c>
+      <c r="M7" t="n">
+        <v>881</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>760</v>
+      </c>
+      <c r="C8" t="n">
+        <v>286</v>
+      </c>
+      <c r="D8" t="n">
+        <v>195</v>
+      </c>
+      <c r="E8" t="n">
+        <v>124</v>
+      </c>
+      <c r="F8" t="n">
+        <v>38</v>
+      </c>
+      <c r="G8" t="n">
+        <v>187</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1706</v>
+      </c>
+      <c r="I8" t="n">
+        <v>858</v>
+      </c>
+      <c r="J8" t="n">
+        <v>154</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1595</v>
+      </c>
+      <c r="L8" t="n">
+        <v>999</v>
+      </c>
+      <c r="M8" t="n">
+        <v>880</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>760</v>
+      </c>
+      <c r="C9" t="n">
+        <v>291</v>
+      </c>
+      <c r="D9" t="n">
+        <v>193</v>
+      </c>
+      <c r="E9" t="n">
+        <v>129</v>
+      </c>
+      <c r="F9" t="n">
         <v>44</v>
       </c>
-      <c r="G6" t="n">
-        <v>188</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1706</v>
-      </c>
-      <c r="I6" t="n">
-        <v>858</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="G9" t="n">
+        <v>189</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1701</v>
+      </c>
+      <c r="I9" t="n">
+        <v>855</v>
+      </c>
+      <c r="J9" t="n">
         <v>154</v>
       </c>
-      <c r="K6" t="n">
-        <v>1597</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1004</v>
-      </c>
-      <c r="M6" t="n">
-        <v>881</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
+      <c r="K9" t="n">
+        <v>1601</v>
+      </c>
+      <c r="L9" t="n">
+        <v>999</v>
+      </c>
+      <c r="M9" t="n">
+        <v>882</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>761</v>
+      </c>
+      <c r="C10" t="n">
+        <v>295</v>
+      </c>
+      <c r="D10" t="n">
+        <v>190</v>
+      </c>
+      <c r="E10" t="n">
+        <v>131</v>
+      </c>
+      <c r="F10" t="n">
+        <v>45</v>
+      </c>
+      <c r="G10" t="n">
+        <v>192</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1712</v>
+      </c>
+      <c r="I10" t="n">
+        <v>853</v>
+      </c>
+      <c r="J10" t="n">
+        <v>155</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1598</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>885</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4805,7 +5161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC6"/>
+  <dimension ref="A1:AC10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4960,40 +5316,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>95</v>
+        <v>94.875</v>
       </c>
       <c r="C2" t="n">
-        <v>36.125</v>
+        <v>36.5</v>
       </c>
       <c r="D2" t="n">
-        <v>24.75</v>
+        <v>24.125</v>
       </c>
       <c r="E2" t="n">
-        <v>16.375</v>
+        <v>15.125</v>
       </c>
       <c r="F2" t="n">
-        <v>5.125</v>
+        <v>4.875</v>
       </c>
       <c r="G2" t="n">
-        <v>24.125</v>
+        <v>23.75</v>
       </c>
       <c r="H2" t="n">
-        <v>213.625</v>
+        <v>213.375</v>
       </c>
       <c r="I2" t="n">
-        <v>106.625</v>
+        <v>106.375</v>
       </c>
       <c r="J2" t="n">
-        <v>18.875</v>
+        <v>19.625</v>
       </c>
       <c r="K2" t="n">
-        <v>199.625</v>
+        <v>199.125</v>
       </c>
       <c r="L2" t="n">
-        <v>124.875</v>
+        <v>125.375</v>
       </c>
       <c r="M2" t="n">
-        <v>110.125</v>
+        <v>110.375</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -5049,37 +5405,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>143.25</v>
+        <v>141.9375</v>
       </c>
       <c r="C3" t="n">
-        <v>54.1875</v>
+        <v>53.625</v>
       </c>
       <c r="D3" t="n">
-        <v>36.5625</v>
+        <v>37.5</v>
       </c>
       <c r="E3" t="n">
-        <v>23.0625</v>
+        <v>23.8125</v>
       </c>
       <c r="F3" t="n">
         <v>6.9375</v>
       </c>
       <c r="G3" t="n">
-        <v>35.4375</v>
+        <v>35.8125</v>
       </c>
       <c r="H3" t="n">
-        <v>319.875</v>
+        <v>321</v>
       </c>
       <c r="I3" t="n">
-        <v>159.9375</v>
+        <v>160.5</v>
       </c>
       <c r="J3" t="n">
-        <v>29.0625</v>
+        <v>28.875</v>
       </c>
       <c r="K3" t="n">
-        <v>299.8125</v>
+        <v>300.1875</v>
       </c>
       <c r="L3" t="n">
-        <v>187.3125</v>
+        <v>187.875</v>
       </c>
       <c r="M3" t="n">
         <v>165.375</v>
@@ -5138,40 +5494,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>166.25</v>
+        <v>165.375</v>
       </c>
       <c r="C4" t="n">
-        <v>65.1875</v>
+        <v>64.09375</v>
       </c>
       <c r="D4" t="n">
-        <v>42.4375</v>
+        <v>43.3125</v>
       </c>
       <c r="E4" t="n">
-        <v>27.125</v>
+        <v>27.5625</v>
       </c>
       <c r="F4" t="n">
-        <v>8.75</v>
+        <v>8.53125</v>
       </c>
       <c r="G4" t="n">
-        <v>41.125</v>
+        <v>41.5625</v>
       </c>
       <c r="H4" t="n">
-        <v>373.625</v>
+        <v>373.40625</v>
       </c>
       <c r="I4" t="n">
-        <v>187.46875</v>
+        <v>187.6875</v>
       </c>
       <c r="J4" t="n">
-        <v>32.375</v>
+        <v>33.03125</v>
       </c>
       <c r="K4" t="n">
-        <v>349.5625</v>
+        <v>350</v>
       </c>
       <c r="L4" t="n">
-        <v>219.40625</v>
+        <v>218.09375</v>
       </c>
       <c r="M4" t="n">
-        <v>191.84375</v>
+        <v>192.28125</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -5227,40 +5583,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>177.421875</v>
+        <v>179.0625</v>
       </c>
       <c r="C5" t="n">
-        <v>69.140625</v>
+        <v>68.90625</v>
       </c>
       <c r="D5" t="n">
-        <v>45.703125</v>
+        <v>45.9375</v>
       </c>
       <c r="E5" t="n">
-        <v>28.828125</v>
+        <v>30.46875</v>
       </c>
       <c r="F5" t="n">
-        <v>8.671875</v>
+        <v>10.546875</v>
       </c>
       <c r="G5" t="n">
-        <v>44.53125</v>
+        <v>45</v>
       </c>
       <c r="H5" t="n">
-        <v>401.484375</v>
+        <v>400.3125</v>
       </c>
       <c r="I5" t="n">
-        <v>200.390625</v>
+        <v>201.328125</v>
       </c>
       <c r="J5" t="n">
-        <v>36.796875</v>
+        <v>36.09375</v>
       </c>
       <c r="K5" t="n">
-        <v>375</v>
+        <v>374.0625</v>
       </c>
       <c r="L5" t="n">
-        <v>234.84375</v>
+        <v>234.140625</v>
       </c>
       <c r="M5" t="n">
-        <v>205.546875</v>
+        <v>205.78125</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -5319,37 +5675,37 @@
         <v>184.7890625</v>
       </c>
       <c r="C6" t="n">
-        <v>70.234375</v>
+        <v>69.9921875</v>
       </c>
       <c r="D6" t="n">
-        <v>48.1953125</v>
+        <v>46.7421875</v>
       </c>
       <c r="E6" t="n">
-        <v>30.2734375</v>
+        <v>29.546875</v>
       </c>
       <c r="F6" t="n">
-        <v>10.65625</v>
+        <v>9.9296875</v>
       </c>
       <c r="G6" t="n">
-        <v>45.53125</v>
+        <v>45.7734375</v>
       </c>
       <c r="H6" t="n">
-        <v>413.171875</v>
+        <v>415.3515625</v>
       </c>
       <c r="I6" t="n">
-        <v>207.796875</v>
+        <v>208.28125</v>
       </c>
       <c r="J6" t="n">
-        <v>37.296875</v>
+        <v>38.75</v>
       </c>
       <c r="K6" t="n">
-        <v>386.7734375</v>
+        <v>387.2578125</v>
       </c>
       <c r="L6" t="n">
-        <v>243.15625</v>
+        <v>242.671875</v>
       </c>
       <c r="M6" t="n">
-        <v>213.3671875</v>
+        <v>213.609375</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -5397,6 +5753,362 @@
         <v>0</v>
       </c>
       <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>186.5390625</v>
+      </c>
+      <c r="C7" t="n">
+        <v>72.59765625</v>
+      </c>
+      <c r="D7" t="n">
+        <v>47.7421875</v>
+      </c>
+      <c r="E7" t="n">
+        <v>30.0234375</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9.10546875</v>
+      </c>
+      <c r="G7" t="n">
+        <v>47.00390625</v>
+      </c>
+      <c r="H7" t="n">
+        <v>418.60546875</v>
+      </c>
+      <c r="I7" t="n">
+        <v>211.39453125</v>
+      </c>
+      <c r="J7" t="n">
+        <v>37.40625</v>
+      </c>
+      <c r="K7" t="n">
+        <v>394.2421875</v>
+      </c>
+      <c r="L7" t="n">
+        <v>246.83203125</v>
+      </c>
+      <c r="M7" t="n">
+        <v>216.80859375</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>188.515625</v>
+      </c>
+      <c r="C8" t="n">
+        <v>70.94140625</v>
+      </c>
+      <c r="D8" t="n">
+        <v>48.369140625</v>
+      </c>
+      <c r="E8" t="n">
+        <v>30.7578125</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9.42578125</v>
+      </c>
+      <c r="G8" t="n">
+        <v>46.384765625</v>
+      </c>
+      <c r="H8" t="n">
+        <v>423.16796875</v>
+      </c>
+      <c r="I8" t="n">
+        <v>212.82421875</v>
+      </c>
+      <c r="J8" t="n">
+        <v>38.19921875</v>
+      </c>
+      <c r="K8" t="n">
+        <v>395.634765625</v>
+      </c>
+      <c r="L8" t="n">
+        <v>247.798828125</v>
+      </c>
+      <c r="M8" t="n">
+        <v>218.28125</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>189.2578125</v>
+      </c>
+      <c r="C9" t="n">
+        <v>72.4658203125</v>
+      </c>
+      <c r="D9" t="n">
+        <v>48.0615234375</v>
+      </c>
+      <c r="E9" t="n">
+        <v>32.1240234375</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10.95703125</v>
+      </c>
+      <c r="G9" t="n">
+        <v>47.0654296875</v>
+      </c>
+      <c r="H9" t="n">
+        <v>423.5888671875</v>
+      </c>
+      <c r="I9" t="n">
+        <v>212.9150390625</v>
+      </c>
+      <c r="J9" t="n">
+        <v>38.349609375</v>
+      </c>
+      <c r="K9" t="n">
+        <v>398.6865234375</v>
+      </c>
+      <c r="L9" t="n">
+        <v>248.7744140625</v>
+      </c>
+      <c r="M9" t="n">
+        <v>219.638671875</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>189.87841796875</v>
+      </c>
+      <c r="C10" t="n">
+        <v>73.60595703125</v>
+      </c>
+      <c r="D10" t="n">
+        <v>47.4072265625</v>
+      </c>
+      <c r="E10" t="n">
+        <v>32.68603515625</v>
+      </c>
+      <c r="F10" t="n">
+        <v>11.22802734375</v>
+      </c>
+      <c r="G10" t="n">
+        <v>47.90625</v>
+      </c>
+      <c r="H10" t="n">
+        <v>427.1640625</v>
+      </c>
+      <c r="I10" t="n">
+        <v>212.83349609375</v>
+      </c>
+      <c r="J10" t="n">
+        <v>38.67431640625</v>
+      </c>
+      <c r="K10" t="n">
+        <v>398.7197265625</v>
+      </c>
+      <c r="L10" t="n">
+        <v>249.51171875</v>
+      </c>
+      <c r="M10" t="n">
+        <v>220.81787109375</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5429,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>124034</v>
+        <v>140470</v>
       </c>
     </row>
     <row r="3">
@@ -5437,7 +6149,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>287444</v>
+        <v>140470</v>
       </c>
     </row>
     <row r="4">
@@ -5445,7 +6157,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>87244</v>
+        <v>392540</v>
       </c>
     </row>
     <row r="5">
@@ -5453,7 +6165,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2421250</v>
+        <v>392540</v>
       </c>
     </row>
   </sheetData>
@@ -5496,7 +6208,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -5515,7 +6227,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -5534,7 +6246,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -5553,7 +6265,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -5572,7 +6284,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -5591,7 +6303,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -5610,7 +6322,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -5629,7 +6341,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -5648,7 +6360,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -5667,7 +6379,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -5686,7 +6398,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -5705,7 +6417,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -5733,7 +6445,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5752,7 +6464,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -5771,7 +6483,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -5790,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -5809,7 +6521,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -5828,7 +6540,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -5841,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -5860,7 +6572,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -5879,7 +6591,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -5898,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -5920,7 +6632,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -5939,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -5958,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -5977,7 +6689,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -5996,7 +6708,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -6015,7 +6727,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
